--- a/homellcdata.xlsx
+++ b/homellcdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>UNEMPLOYMENT_RATE</t>
+  </si>
+  <si>
+    <t>CPI</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,11 +404,12 @@
     <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,13 +441,16 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37257</v>
       </c>
@@ -475,14 +482,17 @@
         <v>848340</v>
       </c>
       <c r="K2">
+        <v>180.3</v>
+      </c>
+      <c r="L2">
         <v>5.8</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>122.27916666666668</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37622</v>
       </c>
@@ -514,14 +524,17 @@
         <v>890521</v>
       </c>
       <c r="K3">
+        <v>184.8</v>
+      </c>
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>133.73133333333337</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>37987</v>
       </c>
@@ -553,14 +566,17 @@
         <v>989220</v>
       </c>
       <c r="K4">
+        <v>189.5</v>
+      </c>
+      <c r="L4">
         <v>5.5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>150.44025000000002</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>38353</v>
       </c>
@@ -592,14 +608,17 @@
         <v>1114935</v>
       </c>
       <c r="K5">
+        <v>195.7</v>
+      </c>
+      <c r="L5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>171.73699999999999</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>38718</v>
       </c>
@@ -631,14 +650,17 @@
         <v>1164343</v>
       </c>
       <c r="K6">
+        <v>203.2</v>
+      </c>
+      <c r="L6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>183.44749999999999</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>39083</v>
       </c>
@@ -670,14 +692,17 @@
         <v>1147742</v>
       </c>
       <c r="K7">
+        <v>209.6</v>
+      </c>
+      <c r="L7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>179.91891666666663</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39448</v>
       </c>
@@ -709,14 +734,17 @@
         <v>1075923</v>
       </c>
       <c r="K8">
+        <v>216.3</v>
+      </c>
+      <c r="L8">
         <v>5.8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>164.05741666666668</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>39814</v>
       </c>
@@ -748,14 +776,17 @@
         <v>912243</v>
       </c>
       <c r="K9">
+        <v>217.1</v>
+      </c>
+      <c r="L9">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>148.54508333333334</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40179</v>
       </c>
@@ -787,14 +818,17 @@
         <v>811523</v>
       </c>
       <c r="K10">
+        <v>216.3</v>
+      </c>
+      <c r="L10">
         <v>9.6</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>144.67449999999999</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40544</v>
       </c>
@@ -826,14 +860,17 @@
         <v>790568</v>
       </c>
       <c r="K11">
+        <v>219.1</v>
+      </c>
+      <c r="L11">
         <v>8.9</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>139.25949999999997</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>40909</v>
       </c>
@@ -865,14 +902,17 @@
         <v>853535</v>
       </c>
       <c r="K12">
+        <v>222.7</v>
+      </c>
+      <c r="L12">
         <v>8.1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>140.9938333333333</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41275</v>
       </c>
@@ -904,14 +944,17 @@
         <v>912340</v>
       </c>
       <c r="K13">
+        <v>227.3</v>
+      </c>
+      <c r="L13">
         <v>7.4</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>154.52083333333334</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41640</v>
       </c>
@@ -943,14 +986,17 @@
         <v>1015450</v>
       </c>
       <c r="K14">
+        <v>233.2</v>
+      </c>
+      <c r="L14">
         <v>6.2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>164.69825</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42005</v>
       </c>
@@ -982,14 +1028,17 @@
         <v>1130533</v>
       </c>
       <c r="K15">
+        <v>238.1</v>
+      </c>
+      <c r="L15">
         <v>5.3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>172.18174999999999</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42370</v>
       </c>
@@ -1021,14 +1070,17 @@
         <v>1213454</v>
       </c>
       <c r="K16">
+        <v>244</v>
+      </c>
+      <c r="L16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>180.92574999999999</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42736</v>
       </c>
@@ -1060,14 +1112,17 @@
         <v>1280870</v>
       </c>
       <c r="K17">
+        <v>251.2</v>
+      </c>
+      <c r="L17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>191.39874999999995</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43101</v>
       </c>
@@ -1099,14 +1154,17 @@
         <v>1333499</v>
       </c>
       <c r="K18">
+        <v>258.5</v>
+      </c>
+      <c r="L18">
         <v>3.9</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>202.47933333333333</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43466</v>
       </c>
@@ -1138,14 +1196,17 @@
         <v>1389881</v>
       </c>
       <c r="K19">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="L19">
         <v>3.7</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>209.46766666666667</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43831</v>
       </c>
@@ -1177,14 +1238,17 @@
         <v>1500285</v>
       </c>
       <c r="K20">
+        <v>271.8</v>
+      </c>
+      <c r="L20">
         <v>8.1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>222.14858333333333</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44197</v>
       </c>
@@ -1216,14 +1280,17 @@
         <v>1653920</v>
       </c>
       <c r="K21">
+        <v>280.7</v>
+      </c>
+      <c r="L21">
         <v>5.4</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>260.05299999999994</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44562</v>
       </c>
@@ -1255,41 +1322,44 @@
         <v>1847810</v>
       </c>
       <c r="K22">
+        <v>300.8</v>
+      </c>
+      <c r="L22">
         <v>3.6</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>298.49416666666667</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
